--- a/Team-Data/2015-16/4-10-2015-16.xlsx
+++ b/Team-Data/2015-16/4-10-2015-16.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
         <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.608</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -684,10 +751,10 @@
         <v>38.7</v>
       </c>
       <c r="J2" t="n">
-        <v>84.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L2" t="n">
         <v>10</v>
@@ -696,13 +763,13 @@
         <v>28.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O2" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P2" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q2" t="n">
         <v>0.786</v>
@@ -714,22 +781,22 @@
         <v>33.8</v>
       </c>
       <c r="T2" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U2" t="n">
         <v>25.7</v>
       </c>
       <c r="V2" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W2" t="n">
         <v>9.1</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
         <v>19.1</v>
@@ -738,13 +805,13 @@
         <v>18.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
@@ -756,13 +823,13 @@
         <v>7</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
         <v>11</v>
@@ -774,10 +841,10 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="n">
         <v>30</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
@@ -810,16 +877,16 @@
         <v>14</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
         <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>0.582</v>
+        <v>0.588</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -881,13 +948,13 @@
         <v>0.335</v>
       </c>
       <c r="O3" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P3" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R3" t="n">
         <v>11.6</v>
@@ -899,10 +966,10 @@
         <v>45</v>
       </c>
       <c r="U3" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="V3" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W3" t="n">
         <v>9.199999999999999</v>
@@ -917,16 +984,16 @@
         <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>8</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>12</v>
@@ -956,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
         <v>10</v>
@@ -965,13 +1032,13 @@
         <v>12</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
@@ -986,19 +1053,19 @@
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
         <v>29</v>
       </c>
       <c r="BA3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC3" t="n">
         <v>8</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -1054,34 +1121,34 @@
         <v>0.454</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="M4" t="n">
-        <v>18.3</v>
+        <v>17.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O4" t="n">
         <v>15.7</v>
       </c>
       <c r="P4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q4" t="n">
         <v>0.759</v>
       </c>
       <c r="R4" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T4" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U4" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V4" t="n">
         <v>14.9</v>
@@ -1099,22 +1166,22 @@
         <v>18</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-7.2</v>
+        <v>-7.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG4" t="n">
         <v>28</v>
@@ -1123,10 +1190,10 @@
         <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
         <v>13</v>
@@ -1135,7 +1202,7 @@
         <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN4" t="n">
         <v>13</v>
@@ -1159,7 +1226,7 @@
         <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV4" t="n">
         <v>21</v>
@@ -1168,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="AX4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>17</v>
@@ -1180,7 +1247,7 @@
         <v>28</v>
       </c>
       <c r="BB4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -1227,31 +1294,31 @@
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L5" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="M5" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O5" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.792</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
         <v>9</v>
@@ -1263,13 +1330,13 @@
         <v>43.9</v>
       </c>
       <c r="U5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V5" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X5" t="n">
         <v>5.4</v>
@@ -1278,7 +1345,7 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA5" t="n">
         <v>20.4</v>
@@ -1287,40 +1354,40 @@
         <v>103.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
         <v>8</v>
       </c>
       <c r="AG5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH5" t="n">
         <v>8</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>24</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM5" t="n">
         <v>4</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
         <v>7</v>
@@ -1329,16 +1396,16 @@
         <v>11</v>
       </c>
       <c r="AQ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS5" t="n">
         <v>4</v>
       </c>
       <c r="AT5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
         <v>19</v>
@@ -1347,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="AW5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX5" t="n">
         <v>12</v>
@@ -1356,7 +1423,7 @@
         <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
         <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>0.487</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1412,10 +1479,10 @@
         <v>38.5</v>
       </c>
       <c r="J6" t="n">
-        <v>87.8</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L6" t="n">
         <v>7.8</v>
@@ -1424,7 +1491,7 @@
         <v>21.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O6" t="n">
         <v>16.4</v>
@@ -1433,19 +1500,19 @@
         <v>20.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="T6" t="n">
         <v>46.4</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V6" t="n">
         <v>13.9</v>
@@ -1460,31 +1527,31 @@
         <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA6" t="n">
         <v>18.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
         <v>11</v>
@@ -1496,7 +1563,7 @@
         <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
         <v>24</v>
@@ -1505,16 +1572,16 @@
         <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS6" t="n">
         <v>3</v>
@@ -1523,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
         <v>13</v>
@@ -1535,19 +1602,19 @@
         <v>8</v>
       </c>
       <c r="AY6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>5</v>
       </c>
       <c r="BA6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB6" t="n">
         <v>21</v>
       </c>
       <c r="BC6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>0.705</v>
+        <v>0.7</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J7" t="n">
-        <v>83.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K7" t="n">
         <v>0.46</v>
@@ -1609,25 +1676,25 @@
         <v>0.362</v>
       </c>
       <c r="O7" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P7" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.749</v>
+        <v>0.746</v>
       </c>
       <c r="R7" t="n">
         <v>10.7</v>
       </c>
       <c r="S7" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="T7" t="n">
-        <v>44.3</v>
+        <v>44.5</v>
       </c>
       <c r="U7" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V7" t="n">
         <v>13.6</v>
@@ -1642,19 +1709,19 @@
         <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA7" t="n">
         <v>20.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AD7" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
@@ -1666,7 +1733,7 @@
         <v>3</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>10</v>
@@ -1684,13 +1751,13 @@
         <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
         <v>21</v>
@@ -1699,28 +1766,28 @@
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -1761,34 +1828,34 @@
         <v>79</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="n">
-        <v>0.506</v>
+        <v>0.519</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="J8" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O8" t="n">
         <v>17.7</v>
@@ -1797,7 +1864,7 @@
         <v>22.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.796</v>
+        <v>0.795</v>
       </c>
       <c r="R8" t="n">
         <v>9.199999999999999</v>
@@ -1812,7 +1879,7 @@
         <v>22.2</v>
       </c>
       <c r="V8" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W8" t="n">
         <v>6.8</v>
@@ -1821,28 +1888,28 @@
         <v>3.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.3</v>
+        <v>102.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
         <v>15</v>
@@ -1851,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="n">
         <v>17</v>
@@ -1863,10 +1930,10 @@
         <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
@@ -1881,13 +1948,13 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV8" t="n">
         <v>2</v>
@@ -1899,7 +1966,7 @@
         <v>29</v>
       </c>
       <c r="AY8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ8" t="n">
         <v>8</v>
@@ -1908,10 +1975,10 @@
         <v>8</v>
       </c>
       <c r="BB8" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC8" t="n">
         <v>15</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>16</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -1943,25 +2010,25 @@
         <v>80</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4</v>
+        <v>0.413</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J9" t="n">
         <v>85.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L9" t="n">
         <v>8</v>
@@ -1970,7 +2037,7 @@
         <v>23.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.336</v>
+        <v>0.34</v>
       </c>
       <c r="O9" t="n">
         <v>18.6</v>
@@ -1988,49 +2055,49 @@
         <v>33.1</v>
       </c>
       <c r="T9" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U9" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V9" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W9" t="n">
         <v>7.4</v>
       </c>
       <c r="X9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y9" t="n">
         <v>6.3</v>
       </c>
       <c r="Z9" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AA9" t="n">
         <v>21</v>
       </c>
-      <c r="AA9" t="n">
-        <v>20.9</v>
-      </c>
       <c r="AB9" t="n">
-        <v>101.9</v>
+        <v>102.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.3</v>
+        <v>-2.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>19</v>
@@ -2039,16 +2106,16 @@
         <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2069,10 +2136,10 @@
         <v>8</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
@@ -2087,13 +2154,13 @@
         <v>23</v>
       </c>
       <c r="BA9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BC9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -2122,55 +2189,55 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10" t="n">
         <v>37</v>
       </c>
       <c r="G10" t="n">
-        <v>0.526</v>
+        <v>0.538</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J10" t="n">
         <v>86.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L10" t="n">
         <v>9</v>
       </c>
       <c r="M10" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O10" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P10" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.664</v>
+        <v>0.666</v>
       </c>
       <c r="R10" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S10" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T10" t="n">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
       <c r="U10" t="n">
         <v>19.4</v>
@@ -2179,7 +2246,7 @@
         <v>13.5</v>
       </c>
       <c r="W10" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
         <v>3.6</v>
@@ -2191,28 +2258,28 @@
         <v>19.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB10" t="n">
         <v>102</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>18</v>
@@ -2221,7 +2288,7 @@
         <v>5</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>11</v>
@@ -2245,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT10" t="n">
         <v>3</v>
@@ -2266,7 +2333,7 @@
         <v>8</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -2319,46 +2386,46 @@
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="J11" t="n">
-        <v>87.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="L11" t="n">
         <v>13.1</v>
       </c>
       <c r="M11" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.417</v>
+        <v>0.416</v>
       </c>
       <c r="O11" t="n">
         <v>16.7</v>
       </c>
       <c r="P11" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="S11" t="n">
         <v>36.2</v>
       </c>
       <c r="T11" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U11" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="V11" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W11" t="n">
         <v>8.4</v>
@@ -2367,22 +2434,22 @@
         <v>6.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>114.8</v>
+        <v>115.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2418,13 +2485,13 @@
         <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2436,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
         <v>9</v>
@@ -2448,7 +2515,7 @@
         <v>3</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -2489,40 +2556,40 @@
         <v>79</v>
       </c>
       <c r="E12" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" t="n">
-        <v>0.494</v>
+        <v>0.481</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.6</v>
+        <v>37.3</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L12" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="M12" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
         <v>20.6</v>
       </c>
       <c r="P12" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="Q12" t="n">
         <v>0.695</v>
@@ -2534,58 +2601,58 @@
         <v>31.6</v>
       </c>
       <c r="T12" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U12" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V12" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W12" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
         <v>5.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.4</v>
+        <v>105.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
         <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
         <v>7</v>
@@ -2612,10 +2679,10 @@
         <v>27</v>
       </c>
       <c r="AT12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV12" t="n">
         <v>27</v>
@@ -2624,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
         <v>13</v>
@@ -2636,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -2671,31 +2738,31 @@
         <v>79</v>
       </c>
       <c r="E13" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" t="n">
-        <v>0.544</v>
+        <v>0.532</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J13" t="n">
         <v>85.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L13" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="N13" t="n">
         <v>0.349</v>
@@ -2704,25 +2771,25 @@
         <v>17.5</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R13" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="T13" t="n">
-        <v>44.3</v>
+        <v>44</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
         <v>9</v>
@@ -2731,43 +2798,43 @@
         <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA13" t="n">
         <v>20.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>102.3</v>
+        <v>101.9</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
         <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
         <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
         <v>18</v>
@@ -2788,19 +2855,19 @@
         <v>15</v>
       </c>
       <c r="AR13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AT13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU13" t="n">
         <v>22</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>4</v>
@@ -2818,10 +2885,10 @@
         <v>13</v>
       </c>
       <c r="BB13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BC13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2938,7 @@
         <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L14" t="n">
         <v>9.699999999999999</v>
@@ -2880,7 +2947,7 @@
         <v>26.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O14" t="n">
         <v>18.3</v>
@@ -2889,7 +2956,7 @@
         <v>26.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.696</v>
       </c>
       <c r="R14" t="n">
         <v>8.9</v>
@@ -2901,34 +2968,34 @@
         <v>42.1</v>
       </c>
       <c r="U14" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V14" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W14" t="n">
         <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Z14" t="n">
         <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.3</v>
+        <v>104.5</v>
       </c>
       <c r="AC14" t="n">
         <v>4.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2940,10 +3007,10 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>25</v>
@@ -2967,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
         <v>29</v>
       </c>
       <c r="AS14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT14" t="n">
         <v>24</v>
@@ -3003,7 +3070,7 @@
         <v>7</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -3047,49 +3114,49 @@
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J15" t="n">
-        <v>84.8</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.415</v>
+        <v>0.414</v>
       </c>
       <c r="L15" t="n">
         <v>7.8</v>
       </c>
       <c r="M15" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.32</v>
+        <v>0.318</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P15" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.776</v>
+        <v>0.778</v>
       </c>
       <c r="R15" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S15" t="n">
         <v>32.1</v>
       </c>
       <c r="T15" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U15" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="V15" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X15" t="n">
         <v>4.2</v>
@@ -3098,19 +3165,19 @@
         <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AB15" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-9.6</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>29</v>
@@ -3134,7 +3201,7 @@
         <v>30</v>
       </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM15" t="n">
         <v>13</v>
@@ -3149,7 +3216,7 @@
         <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR15" t="n">
         <v>11</v>
@@ -3158,16 +3225,16 @@
         <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
         <v>24</v>
@@ -3176,10 +3243,10 @@
         <v>25</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -3214,43 +3281,43 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
         <v>42</v>
       </c>
       <c r="F16" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" t="n">
-        <v>0.532</v>
+        <v>0.525</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J16" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L16" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M16" t="n">
         <v>18.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.335</v>
+        <v>0.332</v>
       </c>
       <c r="O16" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P16" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q16" t="n">
         <v>0.784</v>
@@ -3265,10 +3332,10 @@
         <v>41.7</v>
       </c>
       <c r="U16" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V16" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W16" t="n">
         <v>8.800000000000001</v>
@@ -3280,40 +3347,40 @@
         <v>5.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA16" t="n">
         <v>21.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.4</v>
+        <v>-1.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -3322,7 +3389,7 @@
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
@@ -3331,10 +3398,10 @@
         <v>8</v>
       </c>
       <c r="AQ16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR16" t="n">
         <v>8</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>9</v>
       </c>
       <c r="AS16" t="n">
         <v>30</v>
@@ -3355,7 +3422,7 @@
         <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ16" t="n">
         <v>27</v>
@@ -3367,7 +3434,7 @@
         <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3478,7 @@
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J17" t="n">
         <v>81.7</v>
@@ -3420,19 +3487,19 @@
         <v>0.47</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M17" t="n">
         <v>18</v>
       </c>
       <c r="N17" t="n">
-        <v>0.336</v>
+        <v>0.34</v>
       </c>
       <c r="O17" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P17" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
         <v>0.742</v>
@@ -3447,46 +3514,46 @@
         <v>44.2</v>
       </c>
       <c r="U17" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X17" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y17" t="n">
         <v>4.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA17" t="n">
         <v>19.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
         <v>8</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>13</v>
@@ -3501,22 +3568,22 @@
         <v>28</v>
       </c>
       <c r="AM17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ17" t="n">
         <v>24</v>
       </c>
       <c r="AR17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS17" t="n">
         <v>6</v>
@@ -3531,7 +3598,7 @@
         <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX17" t="n">
         <v>1</v>
@@ -3540,7 +3607,7 @@
         <v>4</v>
       </c>
       <c r="AZ17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA17" t="n">
         <v>20</v>
@@ -3549,7 +3616,7 @@
         <v>23</v>
       </c>
       <c r="BC17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -3581,55 +3648,55 @@
         <v>79</v>
       </c>
       <c r="E18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G18" t="n">
-        <v>0.418</v>
+        <v>0.405</v>
       </c>
       <c r="H18" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J18" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="O18" t="n">
         <v>17</v>
       </c>
       <c r="P18" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R18" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S18" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="T18" t="n">
         <v>41.5</v>
       </c>
       <c r="U18" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V18" t="n">
         <v>15.1</v>
@@ -3644,31 +3711,31 @@
         <v>5.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.8</v>
+        <v>-4.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF18" t="n">
         <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>14</v>
@@ -3686,7 +3753,7 @@
         <v>30</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>20</v>
@@ -3710,16 +3777,16 @@
         <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
       </c>
       <c r="AY18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
         <v>52</v>
       </c>
       <c r="G19" t="n">
-        <v>0.342</v>
+        <v>0.35</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
@@ -3790,16 +3857,16 @@
         <v>16.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.338</v>
+        <v>0.337</v>
       </c>
       <c r="O19" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P19" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.792</v>
+        <v>0.793</v>
       </c>
       <c r="R19" t="n">
         <v>10.1</v>
@@ -3826,19 +3893,19 @@
         <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="AC19" t="n">
         <v>-3.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
@@ -3850,7 +3917,7 @@
         <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
         <v>21</v>
@@ -3868,31 +3935,31 @@
         <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS19" t="n">
         <v>28</v>
       </c>
       <c r="AT19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU19" t="n">
         <v>9</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>14</v>
@@ -3907,7 +3974,7 @@
         <v>17</v>
       </c>
       <c r="BA19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -3942,37 +4009,37 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
       </c>
       <c r="F20" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G20" t="n">
-        <v>0.385</v>
+        <v>0.375</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L20" t="n">
         <v>8.5</v>
       </c>
       <c r="M20" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O20" t="n">
         <v>17.2</v>
@@ -3981,22 +4048,22 @@
         <v>22.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R20" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S20" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T20" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U20" t="n">
         <v>22</v>
       </c>
       <c r="V20" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W20" t="n">
         <v>7.7</v>
@@ -4005,34 +4072,34 @@
         <v>4.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z20" t="n">
         <v>20.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3</v>
+        <v>-3.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>25</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
         <v>12</v>
@@ -4041,61 +4108,61 @@
         <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN20" t="n">
         <v>10</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
       </c>
       <c r="AW20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>15</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA20" t="n">
         <v>19</v>
       </c>
       <c r="BB20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -4127,25 +4194,25 @@
         <v>80</v>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" t="n">
-        <v>0.388</v>
+        <v>0.4</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J21" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
         <v>7.4</v>
@@ -4154,19 +4221,19 @@
         <v>21.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O21" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P21" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q21" t="n">
         <v>0.804</v>
       </c>
       <c r="R21" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S21" t="n">
         <v>34.1</v>
@@ -4175,55 +4242,55 @@
         <v>44.4</v>
       </c>
       <c r="U21" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V21" t="n">
         <v>13.4</v>
       </c>
       <c r="W21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y21" t="n">
         <v>4.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3</v>
+        <v>-2.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="n">
         <v>24</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>24</v>
@@ -4232,16 +4299,16 @@
         <v>23</v>
       </c>
       <c r="AN21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AP21" t="n">
         <v>25</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
@@ -4250,7 +4317,7 @@
         <v>7</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU21" t="n">
         <v>26</v>
@@ -4268,13 +4335,13 @@
         <v>5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" t="n">
         <v>26</v>
       </c>
       <c r="G22" t="n">
-        <v>0.671</v>
+        <v>0.675</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4327,16 +4394,16 @@
         <v>86.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L22" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O22" t="n">
         <v>19.7</v>
@@ -4345,16 +4412,16 @@
         <v>25.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.781</v>
+        <v>0.783</v>
       </c>
       <c r="R22" t="n">
         <v>13</v>
       </c>
       <c r="S22" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="T22" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="U22" t="n">
         <v>23</v>
@@ -4369,22 +4436,22 @@
         <v>5.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z22" t="n">
         <v>20.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="AC22" t="n">
         <v>7.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>4</v>
@@ -4402,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4444,7 +4511,7 @@
         <v>21</v>
       </c>
       <c r="AX22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -4506,19 +4573,19 @@
         <v>39.5</v>
       </c>
       <c r="J23" t="n">
-        <v>86.59999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
         <v>7.8</v>
       </c>
       <c r="M23" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O23" t="n">
         <v>15.3</v>
@@ -4527,16 +4594,16 @@
         <v>20.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R23" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="S23" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U23" t="n">
         <v>23.6</v>
@@ -4548,25 +4615,25 @@
         <v>8.1</v>
       </c>
       <c r="X23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA23" t="n">
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC23" t="n">
-        <v>-1.6</v>
+        <v>-1.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
         <v>20</v>
@@ -4578,7 +4645,7 @@
         <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI23" t="n">
         <v>5</v>
@@ -4596,7 +4663,7 @@
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4605,16 +4672,16 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR23" t="n">
         <v>16</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>18</v>
       </c>
       <c r="AS23" t="n">
         <v>19</v>
       </c>
       <c r="AT23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU23" t="n">
         <v>7</v>
@@ -4629,10 +4696,10 @@
         <v>15</v>
       </c>
       <c r="AY23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>21</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>20</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4641,7 +4708,7 @@
         <v>17</v>
       </c>
       <c r="BC23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -4685,22 +4752,22 @@
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J24" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
         <v>0.431</v>
       </c>
       <c r="L24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M24" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O24" t="n">
         <v>15.7</v>
@@ -4709,7 +4776,7 @@
         <v>22.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.696</v>
       </c>
       <c r="R24" t="n">
         <v>9.5</v>
@@ -4721,10 +4788,10 @@
         <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V24" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W24" t="n">
         <v>8.199999999999999</v>
@@ -4736,19 +4803,19 @@
         <v>5.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA24" t="n">
         <v>19.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10</v>
+        <v>-10.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4760,13 +4827,13 @@
         <v>30</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>28</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP24" t="n">
         <v>19</v>
@@ -4790,10 +4857,10 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT24" t="n">
         <v>30</v>
@@ -4817,7 +4884,7 @@
         <v>25</v>
       </c>
       <c r="BA24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E25" t="n">
         <v>22</v>
       </c>
       <c r="F25" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G25" t="n">
-        <v>0.278</v>
+        <v>0.275</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
@@ -4882,25 +4949,25 @@
         <v>25.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O25" t="n">
         <v>17.5</v>
       </c>
       <c r="P25" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R25" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S25" t="n">
         <v>33.2</v>
       </c>
       <c r="T25" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U25" t="n">
         <v>20.7</v>
@@ -4918,19 +4985,19 @@
         <v>5.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA25" t="n">
         <v>21.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.8</v>
+        <v>-6.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
@@ -4966,16 +5033,16 @@
         <v>14</v>
       </c>
       <c r="AP25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
         <v>6</v>
       </c>
       <c r="AS25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
         <v>7</v>
@@ -4987,13 +5054,13 @@
         <v>30</v>
       </c>
       <c r="AW25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ25" t="n">
         <v>30</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E26" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F26" t="n">
         <v>38</v>
       </c>
       <c r="G26" t="n">
-        <v>0.525</v>
+        <v>0.531</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
@@ -5055,7 +5122,7 @@
         <v>85.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L26" t="n">
         <v>10.5</v>
@@ -5070,19 +5137,19 @@
         <v>17.4</v>
       </c>
       <c r="P26" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R26" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S26" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="T26" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U26" t="n">
         <v>21.3</v>
@@ -5106,22 +5173,22 @@
         <v>19.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>21</v>
@@ -5133,13 +5200,13 @@
         <v>9</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>3</v>
@@ -5151,13 +5218,13 @@
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AT26" t="n">
         <v>5</v>
@@ -5166,7 +5233,7 @@
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E27" t="n">
         <v>32</v>
       </c>
       <c r="F27" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>0.405</v>
+        <v>0.4</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
@@ -5234,7 +5301,7 @@
         <v>40.1</v>
       </c>
       <c r="J27" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="K27" t="n">
         <v>0.465</v>
@@ -5246,16 +5313,16 @@
         <v>22.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O27" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P27" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R27" t="n">
         <v>10.6</v>
@@ -5282,28 +5349,28 @@
         <v>5.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA27" t="n">
         <v>22</v>
       </c>
       <c r="AB27" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>18</v>
@@ -5312,7 +5379,7 @@
         <v>4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK27" t="n">
         <v>6</v>
@@ -5324,7 +5391,7 @@
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
@@ -5342,7 +5409,7 @@
         <v>14</v>
       </c>
       <c r="AT27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU27" t="n">
         <v>4</v>
@@ -5357,13 +5424,13 @@
         <v>20</v>
       </c>
       <c r="AY27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>15</v>
       </c>
       <c r="BA27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB27" t="n">
         <v>3</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -5413,40 +5480,40 @@
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.485</v>
+        <v>0.486</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M28" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O28" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P28" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q28" t="n">
         <v>0.804</v>
       </c>
       <c r="R28" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>34.6</v>
       </c>
       <c r="T28" t="n">
-        <v>44.1</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.7</v>
@@ -5461,7 +5528,7 @@
         <v>5.9</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z28" t="n">
         <v>17.4</v>
@@ -5470,13 +5537,13 @@
         <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.6</v>
+        <v>103.9</v>
       </c>
       <c r="AC28" t="n">
         <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5515,7 +5582,7 @@
         <v>28</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,19 +5591,19 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>3</v>
       </c>
       <c r="AV28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW28" t="n">
         <v>12</v>
       </c>
       <c r="AX28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY28" t="n">
         <v>2</v>
@@ -5548,7 +5615,7 @@
         <v>23</v>
       </c>
       <c r="BB28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -5598,7 +5665,7 @@
         <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.45</v>
@@ -5610,13 +5677,13 @@
         <v>23.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O29" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="P29" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="Q29" t="n">
         <v>0.78</v>
@@ -5625,22 +5692,22 @@
         <v>10.1</v>
       </c>
       <c r="S29" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T29" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U29" t="n">
         <v>18.6</v>
       </c>
       <c r="V29" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W29" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X29" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y29" t="n">
         <v>5.4</v>
@@ -5649,28 +5716,28 @@
         <v>19.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>102.4</v>
+        <v>102.6</v>
       </c>
       <c r="AC29" t="n">
         <v>4.2</v>
       </c>
       <c r="AD29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE29" t="n">
         <v>5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>4</v>
       </c>
       <c r="AF29" t="n">
         <v>4</v>
       </c>
       <c r="AG29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
@@ -5679,7 +5746,7 @@
         <v>29</v>
       </c>
       <c r="AK29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
         <v>14</v>
@@ -5694,13 +5761,13 @@
         <v>2</v>
       </c>
       <c r="AP29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ29" t="n">
         <v>11</v>
       </c>
       <c r="AR29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS29" t="n">
         <v>21</v>
@@ -5712,7 +5779,7 @@
         <v>29</v>
       </c>
       <c r="AV29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW29" t="n">
         <v>15</v>
@@ -5724,16 +5791,16 @@
         <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB29" t="n">
         <v>14</v>
       </c>
       <c r="BC29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -5765,34 +5832,34 @@
         <v>79</v>
       </c>
       <c r="E30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F30" t="n">
         <v>40</v>
       </c>
-      <c r="F30" t="n">
-        <v>39</v>
-      </c>
       <c r="G30" t="n">
-        <v>0.506</v>
+        <v>0.494</v>
       </c>
       <c r="H30" t="n">
         <v>48.7</v>
       </c>
       <c r="I30" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J30" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.448</v>
       </c>
       <c r="L30" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M30" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O30" t="n">
         <v>17.3</v>
@@ -5804,16 +5871,16 @@
         <v>0.745</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S30" t="n">
         <v>32.5</v>
       </c>
       <c r="T30" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U30" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V30" t="n">
         <v>15</v>
@@ -5822,34 +5889,34 @@
         <v>7.7</v>
       </c>
       <c r="X30" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA30" t="n">
         <v>20</v>
       </c>
       <c r="AB30" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>2</v>
@@ -5861,22 +5928,22 @@
         <v>30</v>
       </c>
       <c r="AK30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN30" t="n">
         <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ30" t="n">
         <v>22</v>
@@ -5888,7 +5955,7 @@
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5897,7 +5964,7 @@
         <v>22</v>
       </c>
       <c r="AW30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
@@ -5959,22 +6026,22 @@
         <v>48.2</v>
       </c>
       <c r="I31" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="J31" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L31" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M31" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.36</v>
+        <v>0.357</v>
       </c>
       <c r="O31" t="n">
         <v>16.4</v>
@@ -5983,19 +6050,19 @@
         <v>22.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
       <c r="R31" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S31" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T31" t="n">
         <v>41.6</v>
       </c>
       <c r="U31" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="V31" t="n">
         <v>14.4</v>
@@ -6004,34 +6071,34 @@
         <v>8.6</v>
       </c>
       <c r="X31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="n">
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>104</v>
+        <v>103.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>18</v>
       </c>
       <c r="AF31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH31" t="n">
         <v>26</v>
@@ -6052,10 +6119,10 @@
         <v>14</v>
       </c>
       <c r="AN31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
         <v>20</v>
@@ -6064,13 +6131,13 @@
         <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS31" t="n">
         <v>22</v>
       </c>
       <c r="AT31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU31" t="n">
         <v>5</v>
@@ -6079,22 +6146,22 @@
         <v>16</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
         <v>16</v>
       </c>
       <c r="BB31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-10-2015-16</t>
+          <t>2016-04-10</t>
         </is>
       </c>
     </row>
